--- a/data/processed/documents/APP-000007/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000007/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sama Al Memari</t>
+          <t>Mariam Al Maktoum</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5500</v>
+        <v>5027.59</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>88074</v>
+        <v>595651</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>180520</v>
+        <v>375418</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>-92446</v>
+        <v>220233</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0.49</v>
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>
@@ -608,11 +608,11 @@
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>Mid-range Car</t>
+          <t>Luxury Car</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>84349</v>
+        <v>590676</v>
       </c>
     </row>
     <row r="3">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>3725</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="4">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C4" s="10" t="n">
-        <v>88074</v>
+        <v>595651</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>50609</v>
+        <v>354406</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>703</v>
+        <v>4922</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>6</v>
@@ -717,53 +717,32 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>Personal Loans</t>
+          <t>Credit Cards</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
         <is>
-          <t>Personal Loan</t>
+          <t>Credit Card Balance</t>
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>93848</v>
+        <v>21012</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>1955</v>
+        <v>1051</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Credit Cards</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>Credit Card Balance</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>36063</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>1803</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>TOTAL LIABILITIES</t>
         </is>
       </c>
-      <c r="C5" s="12" t="n">
-        <v>180520</v>
+      <c r="C4" s="12" t="n">
+        <v>375418</v>
       </c>
     </row>
   </sheetData>
